--- a/data/trans_bre/P31_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>-0,19%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,28</t>
+          <t>0,0; 11,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,38</t>
+          <t>-8,8; 5,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 13,34</t>
+          <t>0,0; 12,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,63</t>
+          <t>-2,69; 7,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 8,06</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 15,34</t>
+          <t>-9,3; 6,07</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,77</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 8,41</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,91</t>
+          <t>-0,32; 10,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 8,71</t>
+          <t>0,52; 11,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,32</t>
+          <t>2,15; 15,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 12,78</t>
+          <t>3,63; 16,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 9,78</t>
+          <t>-0,32; 11,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 18,6</t>
+          <t>0,6; 13,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 19,28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 19,72</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>11,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,06</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,78</t>
+          <t>-2,45; 8,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 17,68</t>
+          <t>5,43; 23,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 17,32</t>
+          <t>1,82; 13,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 13,64</t>
+          <t>-1,09; 18,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 21,83</t>
+          <t>-2,48; 9,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 21,29</t>
+          <t>5,8; 31,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 15,86</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 24,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 15,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,96</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 6,88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 11,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 12,2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 12,09</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 7,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 13,61</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 14,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 14,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,47</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,19%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,31%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.394829429356128</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.9270673006216978</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.955617812452605</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5740527624625957</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.03514128083727787</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.009488514358903442</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.04118531164819622</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.005844336582964483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,8; 5,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 7,72</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,4</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-9,3; 6,07</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,77</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 8,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.79922124782823</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.585279167288699</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1285955373864242</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.02599942658784211</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.30489060638178</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.715060077834375</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.46828265062191</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.968750789297381</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1402657585574841</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.0495663796082745</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2412752645550804</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.08795426459324239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,5</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,22%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>9,25%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 10,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 11,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 15,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 16,24</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 11,54</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 13,26</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 19,28</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 19,72</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.971692516710756</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.134444428823981</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.77035477528103</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.109054580198659</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.03208204305432989</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.05601754057955329</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.08842123802277499</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.09000637189255489</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,66%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.335245603127534</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.250890540471625</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.601263805876242</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.334055461219449</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.02483842219993586</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.002468028471267351</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.0177538738443831</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.03537259433993351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 8,29</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 23,7</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 13,28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 18,33</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 9,29</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 31,25</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 15,86</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 24,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.372392685606078</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.01814578407623</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.8969401339909</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>15.49993982666711</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.09402930558870755</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.140089334028415</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1982967902142702</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1869570003444879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.528006505804241</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.2925171460365</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.117716858384727</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.395216678096961</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.07209808489729497</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1285487542600788</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.07881963314258413</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.09779589215808711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.2519395831669252</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.231609328186852</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.548807605742852</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.028692588782699</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.002996686218005118</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.05577177828143208</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.01706636873895922</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.008910161355463259</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.89059088553853</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.09370027197909</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.58017727114072</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.10738723410928</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2880462804655736</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.3209254811334367</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1634013024951612</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2529483555140273</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 6,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 11,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 12,2</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 12,09</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 7,56</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 13,61</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 14,29</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 14,26</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.413834826368745</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.737658318876571</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.157957235677747</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.904305230002727</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.04777995171403599</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.07404420202565702</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0796622665618282</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.07668065193009377</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4027196617338091</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.939864757625088</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.492389292656749</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.348455140389021</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.004234624533643968</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.03139678963684461</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.03728870012950119</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.02512871968196188</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.928219446060863</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.91250778781971</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.03685169964197</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.07085087286125</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1134526122239586</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1380214635754046</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1555685287639083</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.141025434234048</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
